--- a/biology/Histoire de la zoologie et de la botanique/Maxime_Alexandrovitch_Lazarev/Maxime_Alexandrovitch_Lazarev.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Maxime_Alexandrovitch_Lazarev/Maxime_Alexandrovitch_Lazarev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maxime Alexandrovitch Lazarev (en russe : Максим Александрович Лазарев, en anglais : Maxim Alexandrovich Lazarev), né le 28 juin 1985 à Volgograd[1], est un entomologiste et enseignant russe, spécialiste des coléoptères de la famille des Cerambycidae[2]. Candidat en sciences pédagogiques (2013)[3],[4]. Professeur de l'Académie russe des sciences naturelles (2021)[5]. Membre correspondant de la section de zoologie (entomologie) de la Société des naturalistes de Moscou (2005).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maxime Alexandrovitch Lazarev (en russe : Максим Александрович Лазарев, en anglais : Maxim Alexandrovich Lazarev), né le 28 juin 1985 à Volgograd, est un entomologiste et enseignant russe, spécialiste des coléoptères de la famille des Cerambycidae. Candidat en sciences pédagogiques (2013),. Professeur de l'Académie russe des sciences naturelles (2021). Membre correspondant de la section de zoologie (entomologie) de la Société des naturalistes de Moscou (2005).
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Éditeur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au fil des années, il fut rédacteur en chef des magazines suivants:
-Pedagogy of arts (2011-2015); Worldview in the XXI century (2018-2019)[6]. Actuellement rédacteur en chef de la revue: Humanity space. International almanac[7].
+Pedagogy of arts (2011-2015); Worldview in the XXI century (2018-2019). Actuellement rédacteur en chef de la revue: Humanity space. International almanac.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs taxons sont dédiés à Maxim Lazarev :
-Brachyta punctata lazarevi Danilevsky, 2014, (Cerambycidae), North Korea, Gô-Sui [about 41°14′N 128°52′E][8].
-Callimetopus lazarevi  Barševskis, 2015, (Cerambycidae), Philippines: Mindanao Isl., Mt. Apo[9].
-Xylotrechus arvicola lazarevi  Danilevsky, 2016, (Cerambycidae), Russia, Krasnodar Region, Ubinskoe (about 150 m, 44°44′N 38°32′E)[10].</t>
+Brachyta punctata lazarevi Danilevsky, 2014, (Cerambycidae), North Korea, Gô-Sui [about 41°14′N 128°52′E].
+Callimetopus lazarevi  Barševskis, 2015, (Cerambycidae), Philippines: Mindanao Isl., Mt. Apo.
+Xylotrechus arvicola lazarevi  Danilevsky, 2016, (Cerambycidae), Russia, Krasnodar Region, Ubinskoe (about 150 m, 44°44′N 38°32′E).</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La liste est incomplète (partie).
 Agapanthia danilevskyi Lazarev, 2013, (Cerambycidae)
@@ -624,10 +642,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-M.A. Lazarev, depuis 2008, a publié plus de 70 publications sur l'entomologie et plus de 100 sur les sciences humaines, dont les articles et ouvrages suivants[11],[12]:
+M.A. Lazarev, depuis 2008, a publié plus de 70 publications sur l'entomologie et plus de 100 sur les sciences humaines, dont les articles et ouvrages suivants,:
 Publications d`Maxime A. Lazarev
 Lazarev M.A. 2024. Brachyta bifasciata (Olivier, 1795) - protected name (Coleoptera, Cerambycidae) // Humanity space. International almanac. Volume 13. No 3: 230-232. DOI  10.24412/2226-0773-2024-13-3-230-232
 Lazarev M.A. 2024. Taxonomic notes on longhorned beetles with the descriptions of several new taxa (Coleoptera, Cerambycidae) // Humanity space. International almanac. Volume 13. No 1: 21-38. DOI  10.24412/2226-0773-2024-13-1-21-38
@@ -701,7 +721,7 @@
 Lazarev M.A. 2009: New species of Longicorn-beetle (Coleoptera: Cerambycidae) of the genus Neoplocaederus Sama, 1991 from Uzbekistan // Caucasian Entomological Bulletin. Volume. 5. No 1: 73-74, plates 3-4. DOI  10.23885/1814-3326-2009-5-1-73-74
 Lazarev M. A., 2009: Cornumutilaquadrivittata (Gebler, 1830) and C. lineata (Letzner, 1844), stat. rest. (Coleoptera, Cerambycidae) from Western Europe and Russia // Special Bulletin of the Japanese Society of Coleopterology, Tokyo. No 7: 117-126. DOI  10.5281/zenodo.6477058
 Lazarev M.A. 2008: [Notes on taxonomical and distributional problems of the Longicorn beetles of Russia and adjacent countries. Pp. 129-136 / In: Actual problems of the priority directions of development of natural sciences. Collection of articles. Moscow: “Prometey” publishing house MPGU: 220 pp.] [in Russian].  (ISBN 978-5-7042-2190-6), DOI  10.5281/zenodo.6475657
-Il est l'auteur de la série de livres « Catalogue des coléoptères paléarctiques », qui répertorie les principales sources d'informations sur la taxonomie et la répartition des espèces de coléoptères paléarctiques. En particulier, l'auteur du volume 6(1) Chrysomeloidea I (Vesperidae, Disteniidae, Cerambycidae)[13] discute des taxons d'Afghanistan, du Pakistan, de l'Himalaya, de l'Inde, du Népal et du Bhoutan[14]. De plus, dans ce volume, il est l'auteur de nouveaux actes et commentaires nomenclaturaux, taxonomiques et géographiques[15].
+Il est l'auteur de la série de livres « Catalogue des coléoptères paléarctiques », qui répertorie les principales sources d'informations sur la taxonomie et la répartition des espèces de coléoptères paléarctiques. En particulier, l'auteur du volume 6(1) Chrysomeloidea I (Vesperidae, Disteniidae, Cerambycidae) discute des taxons d'Afghanistan, du Pakistan, de l'Himalaya, de l'Inde, du Népal et du Bhoutan. De plus, dans ce volume, il est l'auteur de nouveaux actes et commentaires nomenclaturaux, taxonomiques et géographiques.
 </t>
         </is>
       </c>
@@ -730,7 +750,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Certificat d'honneur du ministère de la Culture d'Ossétie du Nord-Alanie (16 juillet 2020, n° 171)
 Certificat d'honneur du ministère du Développement économique d'Ossétie du Nord-Alanie (2 juillet 2023, n° 42)
